--- a/doc/TiDB/1.Mo_ta_nghiep_vu.xlsx
+++ b/doc/TiDB/1.Mo_ta_nghiep_vu.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Thangtc\Project\napas\webreport\TiDB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Thangtc\Project\napas\webreport\workspace\napas-report-tidb\doc\TiDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2120F848-5DA5-4D1D-A990-AC2F46D5D19B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D62B6AD-B6EB-4B1D-811A-723FC5147B3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{64683C43-40C6-4716-B3B3-E4108C84BF3B}"/>
   </bookViews>
@@ -19,6 +19,7 @@
     <sheet name="QRREALTIME_BACKEND.V_APG10_TRAN" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="213">
   <si>
     <t>STT</t>
   </si>
@@ -342,9 +343,6 @@
 From ZEN_FEE_VALUE_IBFT</t>
   </si>
   <si>
-    <t>Tổng hợp dữ liệu FEE_KEY theo bộ key ACQUIRER-ISSUER-PCODE-MERCHANT_TYPE-CURRENCY_CODE từ 5 bước phía trên</t>
-  </si>
-  <si>
     <t>Map FEE_KEY vào bảng SHCLOG_SETT_IBFT
 28.MERGE_FEE_KEY_TO_SHCLOG_SETT_IBFT.prc</t>
   </si>
@@ -691,6 +689,18 @@
   </si>
   <si>
     <t>Sư dụng đẻ đưa ra excutation plan tối ưu khi querry vao bảng</t>
+  </si>
+  <si>
+    <t>done dev</t>
+  </si>
+  <si>
+    <t>Bỏ theo thóng nhất với napas ngày 17/9/2025</t>
+  </si>
+  <si>
+    <t>Không cần làm với ibft</t>
+  </si>
+  <si>
+    <t>Tổng hợp dữ liệu FEE_KEY theo bộ key ACQUIRER-ISSUER-PCODE-MERCHANT_TYPE-CURRENCY_CODE từ 5 bước phía trên 27.stt_100100400240.sl</t>
   </si>
 </sst>
 </file>
@@ -1140,8 +1150,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{427B2E8B-2EB7-4402-914C-268AFB94ABDC}">
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1257,7 +1267,7 @@
         <v>20</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -1320,7 +1330,7 @@
         <v>33</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -1337,6 +1347,9 @@
       <c r="D12" s="16" t="s">
         <v>36</v>
       </c>
+      <c r="E12" s="15" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="13" spans="1:5" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
@@ -1352,6 +1365,9 @@
       <c r="D13" s="16" t="s">
         <v>39</v>
       </c>
+      <c r="E13" s="15" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
@@ -1367,6 +1383,9 @@
       <c r="D14" s="10" t="s">
         <v>42</v>
       </c>
+      <c r="E14" s="1" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
@@ -1382,6 +1401,9 @@
       <c r="D15" s="11" t="s">
         <v>45</v>
       </c>
+      <c r="E15" s="1" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
@@ -1397,8 +1419,11 @@
       <c r="D16" s="11" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E16" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1412,8 +1437,11 @@
       <c r="D17" s="11" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="E17" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1427,8 +1455,11 @@
       <c r="D18" s="11" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E18" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1442,8 +1473,11 @@
       <c r="D19" s="11" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="E19" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1457,8 +1491,11 @@
       <c r="D20" s="16" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="E20" s="15" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1472,8 +1509,11 @@
       <c r="D21" s="14" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E21" s="15" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1487,8 +1527,11 @@
       <c r="D22" s="14" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E22" s="15" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1502,8 +1545,11 @@
       <c r="D23" s="14" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E23" s="15" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1517,8 +1563,11 @@
       <c r="D24" s="14" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E24" s="15" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="12">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -1532,8 +1581,11 @@
       <c r="D25" s="14" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E25" s="15" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -1547,8 +1599,11 @@
       <c r="D26" s="14" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="E26" s="15" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="12">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -1563,7 +1618,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="28" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="12">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -1577,8 +1632,11 @@
       <c r="D28" s="14" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E28" s="15" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="12">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -1592,8 +1650,11 @@
       <c r="D29" s="14" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E29" s="15" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="12">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -1608,7 +1669,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="31" spans="1:4" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="12">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -1620,10 +1681,13 @@
         <v>94</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>212</v>
+      </c>
+      <c r="E31" s="15" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="12">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -1635,82 +1699,94 @@
         <v>93</v>
       </c>
       <c r="D32" s="16" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+      <c r="E32" s="15" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="12">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="B33" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="C33" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="C33" s="14" t="s">
+      <c r="D33" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="D33" s="16" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="E33" s="15" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="12">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="B34" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="C34" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="C34" s="14" t="s">
-        <v>101</v>
-      </c>
       <c r="D34" s="16" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+      <c r="E34" s="15" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="12">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="B35" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C35" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="C35" s="14" t="s">
-        <v>103</v>
-      </c>
       <c r="D35" s="16" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="E35" s="15" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="12">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="B36" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C36" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="C36" s="14" t="s">
-        <v>107</v>
-      </c>
       <c r="D36" s="16" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="12">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="B37" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C37" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="C37" s="14" t="s">
-        <v>109</v>
-      </c>
       <c r="D37" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -1731,20 +1807,20 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -1767,22 +1843,22 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B1">
         <v>1</v>
       </c>
       <c r="E1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1" t="s">
         <v>113</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I1" t="s">
         <v>114</v>
-      </c>
-      <c r="H1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I1" t="s">
-        <v>115</v>
       </c>
       <c r="J1">
         <v>28502016</v>
@@ -1799,25 +1875,25 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B2">
         <v>2</v>
       </c>
       <c r="D2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F2" t="s">
         <v>117</v>
       </c>
-      <c r="E2" t="s">
-        <v>113</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
         <v>118</v>
-      </c>
-      <c r="H2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" t="s">
-        <v>119</v>
       </c>
       <c r="J2">
         <v>3</v>
@@ -1834,22 +1910,22 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B3">
         <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F3" t="s">
+        <v>120</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="s">
         <v>121</v>
-      </c>
-      <c r="H3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" t="s">
-        <v>122</v>
       </c>
       <c r="J3">
         <v>151728</v>
@@ -1866,22 +1942,22 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B4">
         <v>4</v>
       </c>
       <c r="E4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J4">
         <v>10</v>
@@ -1898,22 +1974,22 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B5">
         <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J5">
         <v>3045888</v>
@@ -1930,22 +2006,22 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B6">
         <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J6">
         <v>1019520</v>
@@ -1962,22 +2038,22 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B7">
         <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J7">
         <v>12502016</v>
@@ -1994,22 +2070,22 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B8">
         <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J8">
         <v>113</v>
@@ -2026,22 +2102,22 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B9">
         <v>9</v>
       </c>
       <c r="E9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J9">
         <v>6</v>
@@ -2058,22 +2134,22 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B10">
         <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J10">
         <v>983232</v>
@@ -2090,22 +2166,22 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B11">
         <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J11">
         <v>57</v>
@@ -2122,22 +2198,22 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B12">
         <v>12</v>
       </c>
       <c r="E12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J12">
         <v>1646720</v>
@@ -2154,22 +2230,22 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B13">
         <v>13</v>
       </c>
       <c r="E13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -2186,22 +2262,22 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B14">
         <v>14</v>
       </c>
       <c r="E14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J14">
         <v>1</v>
@@ -2218,7 +2294,7 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B15">
         <v>15</v>
@@ -2227,16 +2303,16 @@
         <v>2</v>
       </c>
       <c r="E15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J15">
         <v>3586560</v>
@@ -2253,22 +2329,22 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B16">
         <v>16</v>
       </c>
       <c r="E16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -2285,22 +2361,22 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B17">
         <v>17</v>
       </c>
       <c r="E17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J17">
         <v>142224</v>
@@ -2317,22 +2393,22 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B18">
         <v>18</v>
       </c>
       <c r="E18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F18" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J18">
         <v>150160</v>
@@ -2349,22 +2425,22 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B19">
         <v>19</v>
       </c>
       <c r="E19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J19">
         <v>85928</v>
@@ -2381,7 +2457,7 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B20">
         <v>20</v>
@@ -2390,16 +2466,16 @@
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J20">
         <v>365</v>
@@ -2416,22 +2492,22 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B21">
         <v>21</v>
       </c>
       <c r="E21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J21">
         <v>365</v>
@@ -2448,22 +2524,22 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B22">
         <v>22</v>
       </c>
       <c r="E22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J22">
         <v>13</v>
@@ -2480,22 +2556,22 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B23">
         <v>23</v>
       </c>
       <c r="E23" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F23" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J23">
         <v>7</v>
@@ -2512,22 +2588,22 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B24">
         <v>24</v>
       </c>
       <c r="E24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F24" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J24">
         <v>164112</v>
@@ -2544,22 +2620,22 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B25">
         <v>25</v>
       </c>
       <c r="E25" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F25" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -2576,22 +2652,22 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B26">
         <v>26</v>
       </c>
       <c r="E26" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F26" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J26">
         <v>694</v>
@@ -2608,22 +2684,22 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B27">
         <v>27</v>
       </c>
       <c r="E27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F27" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J27">
         <v>33760</v>
@@ -2640,22 +2716,22 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B28">
         <v>28</v>
       </c>
       <c r="E28" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F28" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J28">
         <v>13</v>
@@ -2672,22 +2748,22 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B29">
         <v>29</v>
       </c>
       <c r="E29" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F29" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
       </c>
       <c r="I29" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J29">
         <v>14308352</v>
@@ -2704,22 +2780,22 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B30">
         <v>30</v>
       </c>
       <c r="E30" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F30" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J30">
         <v>2050</v>
@@ -2736,22 +2812,22 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B31">
         <v>31</v>
       </c>
       <c r="E31" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F31" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J31">
         <v>1613952</v>
@@ -2768,22 +2844,22 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B32">
         <v>32</v>
       </c>
       <c r="E32" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F32" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
       <c r="I32" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J32">
         <v>142064</v>
@@ -2800,22 +2876,22 @@
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B33">
         <v>33</v>
       </c>
       <c r="E33" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F33" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J33">
         <v>53</v>
@@ -2832,22 +2908,22 @@
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B34">
         <v>34</v>
       </c>
       <c r="E34" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F34" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
       <c r="I34" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J34">
         <v>4</v>
@@ -2864,22 +2940,22 @@
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B35">
         <v>35</v>
       </c>
       <c r="E35" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F35" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
       <c r="I35" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J35">
         <v>1</v>
@@ -2896,22 +2972,22 @@
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B36">
         <v>36</v>
       </c>
       <c r="E36" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F36" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
       <c r="I36" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J36">
         <v>3</v>
@@ -2928,22 +3004,22 @@
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B37">
         <v>37</v>
       </c>
       <c r="E37" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F37" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
       <c r="I37" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J37">
         <v>1</v>
@@ -2960,22 +3036,22 @@
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B38">
         <v>38</v>
       </c>
       <c r="E38" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F38" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
       <c r="I38" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J38">
         <v>28</v>
@@ -2992,22 +3068,22 @@
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B39">
         <v>39</v>
       </c>
       <c r="E39" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F39" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J39">
         <v>14308352</v>
@@ -3024,22 +3100,22 @@
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B40">
         <v>40</v>
       </c>
       <c r="E40" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F40" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
       <c r="I40" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J40">
         <v>2</v>
@@ -3056,22 +3132,22 @@
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B41">
         <v>41</v>
       </c>
       <c r="E41" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F41" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
       <c r="I41" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J41">
         <v>11</v>
@@ -3088,22 +3164,22 @@
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B42">
         <v>42</v>
       </c>
       <c r="E42" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
       </c>
       <c r="I42" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J42">
         <v>6</v>
@@ -3120,22 +3196,22 @@
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B43">
         <v>43</v>
       </c>
       <c r="E43" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F43" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
       <c r="I43" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J43">
         <v>139008</v>
@@ -3152,22 +3228,22 @@
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B44">
         <v>44</v>
       </c>
       <c r="E44" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F44" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
       <c r="I44" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J44">
         <v>392</v>
@@ -3184,22 +3260,22 @@
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B45">
         <v>45</v>
       </c>
       <c r="E45" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F45" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
       <c r="I45" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J45">
         <v>0</v>
@@ -3216,22 +3292,22 @@
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B46">
         <v>46</v>
       </c>
       <c r="E46" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F46" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
       </c>
       <c r="I46" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J46">
         <v>0</v>
@@ -3248,22 +3324,22 @@
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B47">
         <v>47</v>
       </c>
       <c r="E47" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F47" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
       </c>
       <c r="I47" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J47">
         <v>0</v>
@@ -3280,22 +3356,22 @@
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B48">
         <v>48</v>
       </c>
       <c r="E48" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F48" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
       </c>
       <c r="I48" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J48">
         <v>0</v>
@@ -3312,22 +3388,22 @@
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B49">
         <v>49</v>
       </c>
       <c r="E49" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F49" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
       <c r="I49" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J49">
         <v>0</v>
@@ -3344,22 +3420,22 @@
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B50">
         <v>50</v>
       </c>
       <c r="E50" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F50" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
       <c r="I50" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J50">
         <v>0</v>
@@ -3376,22 +3452,22 @@
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B51">
         <v>51</v>
       </c>
       <c r="E51" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F51" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
       <c r="I51" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J51">
         <v>0</v>
@@ -3408,22 +3484,22 @@
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B52">
         <v>52</v>
       </c>
       <c r="E52" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F52" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
       </c>
       <c r="I52" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J52">
         <v>0</v>
@@ -3440,22 +3516,22 @@
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B53">
         <v>53</v>
       </c>
       <c r="E53" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F53" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
       <c r="I53" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J53">
         <v>0</v>
@@ -3472,22 +3548,22 @@
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B54">
         <v>54</v>
       </c>
       <c r="E54" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F54" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
       </c>
       <c r="I54" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J54">
         <v>0</v>
@@ -3519,702 +3595,702 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B1">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B2">
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B3">
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B4">
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B5">
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B6">
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B7">
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B8">
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B9">
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B10">
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B11">
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B12">
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B13">
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B14">
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B15">
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B16">
         <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B17">
         <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B18">
         <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B19">
         <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B20">
         <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B21">
         <v>21</v>
       </c>
       <c r="C21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B22">
         <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B23">
         <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D23" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B24">
         <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B25">
         <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D25" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B26">
         <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D26" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B27">
         <v>27</v>
       </c>
       <c r="C27" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B28">
         <v>28</v>
       </c>
       <c r="C28" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D28" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B29">
         <v>29</v>
       </c>
       <c r="C29" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D29" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B30">
         <v>30</v>
       </c>
       <c r="C30" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D30" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B31">
         <v>31</v>
       </c>
       <c r="C31" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D31" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B32">
         <v>32</v>
       </c>
       <c r="C32" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D32" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B33">
         <v>33</v>
       </c>
       <c r="C33" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D33" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B34">
         <v>34</v>
       </c>
       <c r="C34" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D34" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B35">
         <v>35</v>
       </c>
       <c r="C35" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D35" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B36">
         <v>36</v>
       </c>
       <c r="C36" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D36" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B37">
         <v>37</v>
       </c>
       <c r="C37" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D37" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B38">
         <v>38</v>
       </c>
       <c r="C38" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D38" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B39">
         <v>39</v>
       </c>
       <c r="C39" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D39" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B40">
         <v>40</v>
       </c>
       <c r="C40" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D40" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B41">
         <v>41</v>
       </c>
       <c r="C41" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D41" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B42">
         <v>42</v>
       </c>
       <c r="C42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D42" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B43">
         <v>43</v>
       </c>
       <c r="C43" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D43" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B44">
         <v>44</v>
       </c>
       <c r="C44" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D44" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B45">
         <v>45</v>
       </c>
       <c r="C45" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D45" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B46">
         <v>46</v>
       </c>
       <c r="C46" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D46" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B47">
         <v>47</v>
       </c>
       <c r="C47" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D47" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B48">
         <v>48</v>
       </c>
       <c r="C48" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D48" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B49">
         <v>49</v>
       </c>
       <c r="C49" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D49" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B50">
         <v>50</v>
       </c>
       <c r="C50" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D50" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/doc/TiDB/1.Mo_ta_nghiep_vu.xlsx
+++ b/doc/TiDB/1.Mo_ta_nghiep_vu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Thangtc\Project\napas\webreport\workspace\napas-report-tidb\doc\TiDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D62B6AD-B6EB-4B1D-811A-723FC5147B3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E173352D-095B-425A-9D56-96CB5D9747B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{64683C43-40C6-4716-B3B3-E4108C84BF3B}"/>
   </bookViews>
@@ -19,7 +19,6 @@
     <sheet name="QRREALTIME_BACKEND.V_APG10_TRAN" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="214">
   <si>
     <t>STT</t>
   </si>
@@ -701,6 +700,9 @@
   </si>
   <si>
     <t>Tổng hợp dữ liệu FEE_KEY theo bộ key ACQUIRER-ISSUER-PCODE-MERCHANT_TYPE-CURRENCY_CODE từ 5 bước phía trên 27.stt_100100400240.sl</t>
+  </si>
+  <si>
+    <t>draft dev</t>
   </si>
 </sst>
 </file>
@@ -1150,8 +1152,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{427B2E8B-2EB7-4402-914C-268AFB94ABDC}">
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1773,6 +1775,9 @@
       <c r="D36" s="16" t="s">
         <v>109</v>
       </c>
+      <c r="E36" s="15" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="37" spans="1:5" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="12">
@@ -1787,6 +1792,9 @@
       </c>
       <c r="D37" s="16" t="s">
         <v>110</v>
+      </c>
+      <c r="E37" s="15" t="s">
+        <v>213</v>
       </c>
     </row>
   </sheetData>

--- a/doc/TiDB/1.Mo_ta_nghiep_vu.xlsx
+++ b/doc/TiDB/1.Mo_ta_nghiep_vu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Thangtc\Project\napas\webreport\workspace\napas-report-tidb\doc\TiDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E173352D-095B-425A-9D56-96CB5D9747B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{458DADF4-9EEF-495E-A907-3C2865C81966}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{64683C43-40C6-4716-B3B3-E4108C84BF3B}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="231">
   <si>
     <t>STT</t>
   </si>
@@ -687,9 +687,6 @@
     <t>ISOMESSAGE_TMP_68_TO</t>
   </si>
   <si>
-    <t>Sư dụng đẻ đưa ra excutation plan tối ưu khi querry vao bảng</t>
-  </si>
-  <si>
     <t>done dev</t>
   </si>
   <si>
@@ -703,6 +700,60 @@
   </si>
   <si>
     <t>draft dev</t>
+  </si>
+  <si>
+    <t>done  dev and test</t>
+  </si>
+  <si>
+    <t>Bỏ qua</t>
+  </si>
+  <si>
+    <t>Done dev and test</t>
+  </si>
+  <si>
+    <t>Trang thai dev</t>
+  </si>
+  <si>
+    <t>Trang thai kiem thu</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Chưa có điểm dữ liệu kiểm thử</t>
+  </si>
+  <si>
+    <t>Done dev</t>
+  </si>
+  <si>
+    <t>Thu nghiem voi du lieu nay 09/09 khong co giao dich timeout</t>
+  </si>
+  <si>
+    <t>vn.napas.webrp.database.repo.sql.ShclogSettIbftSqlBatch</t>
+  </si>
+  <si>
+    <t>JAVA Class</t>
+  </si>
+  <si>
+    <t>vn.napas.webrp.database.repo.store.Proc_CHECK_BACKEND_DOUBLE</t>
+  </si>
+  <si>
+    <t>vn.napas.webrp.database.repo.sql.ZenFeeValueIbftBatch</t>
+  </si>
+  <si>
+    <t>vn.napas.webrp.database.repo.store.Proc_ZenFeeValuePcodeLocalIbft</t>
+  </si>
+  <si>
+    <t>vn.napas.webrp.database.repo.store.Proc_NapasCalFeeLocalIbft</t>
+  </si>
+  <si>
+    <t>vn.napas.webrp.database.repo.store.Proc_MergeFeeKeyToShclogSettIbft</t>
+  </si>
+  <si>
+    <t>vn.napas.webrp.database.repo.store.Proc_CHECK_SPEC_CHAR_IBFT</t>
+  </si>
+  <si>
+    <t>vn.napas.webrp.database.repo.store.Proc_CHECK_TC_NULL</t>
   </si>
 </sst>
 </file>
@@ -1150,10 +1201,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{427B2E8B-2EB7-4402-914C-268AFB94ABDC}">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1163,10 +1214,12 @@
     <col min="3" max="3" width="74.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="86.140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="29.140625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="6" width="28.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="53.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1179,8 +1232,17 @@
       <c r="D1" s="7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E1" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
         <v>1</v>
       </c>
@@ -1193,8 +1255,14 @@
       <c r="D2" s="14" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" s="15" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="E2" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="15" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <f>A2+1</f>
         <v>2</v>
@@ -1208,8 +1276,14 @@
       <c r="D3" s="14" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E3" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <f t="shared" ref="A4:A37" si="0">A3+1</f>
         <v>3</v>
@@ -1223,8 +1297,14 @@
       <c r="D4" s="14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="E4" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1238,8 +1318,14 @@
       <c r="D5" s="14" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="E5" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1253,8 +1339,11 @@
       <c r="D6" s="14" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="E6" s="15" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1269,10 +1358,10 @@
         <v>20</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1286,8 +1375,11 @@
       <c r="D8" s="14" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E8" s="15" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1301,8 +1393,14 @@
       <c r="D9" s="14" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="E9" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1316,8 +1414,11 @@
       <c r="D10" s="16" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="E10" s="15" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1332,10 +1433,10 @@
         <v>33</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1350,10 +1451,10 @@
         <v>36</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1368,10 +1469,10 @@
         <v>39</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1386,10 +1487,10 @@
         <v>42</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1404,10 +1505,10 @@
         <v>45</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1422,10 +1523,10 @@
         <v>47</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1440,10 +1541,10 @@
         <v>51</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1458,10 +1559,10 @@
         <v>54</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1476,10 +1577,10 @@
         <v>57</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1494,10 +1595,13 @@
         <v>60</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+      <c r="G20" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1512,10 +1616,13 @@
         <v>62</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1530,10 +1637,13 @@
         <v>66</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1548,10 +1658,13 @@
         <v>68</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+      <c r="G23" s="15" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1566,10 +1679,10 @@
         <v>72</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="12">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -1584,10 +1697,13 @@
         <v>80</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+      <c r="G25" s="15" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -1602,10 +1718,13 @@
         <v>81</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+      <c r="G26" s="15" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="12">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -1619,8 +1738,11 @@
       <c r="D27" s="14" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G27" s="15" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="12">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -1635,10 +1757,13 @@
         <v>85</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+      <c r="G28" s="15" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="12">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -1653,10 +1778,13 @@
         <v>86</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+      <c r="G29" s="15" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="12">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -1671,7 +1799,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="31" spans="1:5" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="12">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -1683,13 +1811,16 @@
         <v>94</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+      <c r="G31" s="15" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="12">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -1704,10 +1835,13 @@
         <v>95</v>
       </c>
       <c r="E32" s="15" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+      <c r="G32" s="15" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="12">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -1722,10 +1856,13 @@
         <v>98</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+      <c r="G33" s="15" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="12">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -1740,10 +1877,13 @@
         <v>103</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+      <c r="G34" s="15" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="12">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -1758,10 +1898,13 @@
         <v>104</v>
       </c>
       <c r="E35" s="15" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+      <c r="G35" s="15" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="12">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -1776,10 +1919,10 @@
         <v>109</v>
       </c>
       <c r="E36" s="15" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="12">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -1794,7 +1937,7 @@
         <v>110</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>

--- a/doc/TiDB/1.Mo_ta_nghiep_vu.xlsx
+++ b/doc/TiDB/1.Mo_ta_nghiep_vu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Thangtc\Project\napas\webreport\workspace\napas-report-tidb\doc\TiDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{458DADF4-9EEF-495E-A907-3C2865C81966}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5512505-1762-44B9-96D0-697F6C96F137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{64683C43-40C6-4716-B3B3-E4108C84BF3B}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="234">
   <si>
     <t>STT</t>
   </si>
@@ -754,6 +754,15 @@
   </si>
   <si>
     <t>vn.napas.webrp.database.repo.store.Proc_CHECK_TC_NULL</t>
+  </si>
+  <si>
+    <t>vn.napas.webrp.database.repo.store.Proc_GET_ISOMESSAGE_TMP_TURN</t>
+  </si>
+  <si>
+    <t>done dev and test ZEN_CONFIG_FEE_IBFT can kiem tra lai bang dang khong co du lieu</t>
+  </si>
+  <si>
+    <t>done dev amd unit test (can check lai FEE_KEY)</t>
   </si>
 </sst>
 </file>
@@ -1203,8 +1212,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{427B2E8B-2EB7-4402-914C-268AFB94ABDC}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" topLeftCell="B21" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1417,6 +1426,9 @@
       <c r="E10" s="15" t="s">
         <v>220</v>
       </c>
+      <c r="G10" s="15" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="11" spans="1:7" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
@@ -1595,7 +1607,7 @@
         <v>60</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="G20" s="15" t="s">
         <v>224</v>
@@ -1616,7 +1628,7 @@
         <v>62</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="G21" s="15" t="s">
         <v>222</v>
@@ -1637,7 +1649,7 @@
         <v>66</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="G22" s="15" t="s">
         <v>222</v>
@@ -1658,7 +1670,7 @@
         <v>68</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="G23" s="15" t="s">
         <v>222</v>
@@ -1679,7 +1691,7 @@
         <v>72</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -1697,7 +1709,7 @@
         <v>80</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="G25" s="15" t="s">
         <v>225</v>
@@ -1718,7 +1730,7 @@
         <v>81</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="G26" s="15" t="s">
         <v>225</v>
@@ -1738,6 +1750,9 @@
       <c r="D27" s="14" t="s">
         <v>83</v>
       </c>
+      <c r="E27" s="15" t="s">
+        <v>215</v>
+      </c>
       <c r="G27" s="15" t="s">
         <v>226</v>
       </c>
@@ -1757,7 +1772,7 @@
         <v>85</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="G28" s="15" t="s">
         <v>225</v>
@@ -1778,7 +1793,7 @@
         <v>86</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="G29" s="15" t="s">
         <v>225</v>
@@ -1814,7 +1829,7 @@
         <v>211</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="G31" s="15" t="s">
         <v>225</v>
@@ -1835,7 +1850,7 @@
         <v>95</v>
       </c>
       <c r="E32" s="15" t="s">
-        <v>208</v>
+        <v>232</v>
       </c>
       <c r="G32" s="15" t="s">
         <v>228</v>
@@ -1856,7 +1871,7 @@
         <v>98</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="G33" s="15" t="s">
         <v>227</v>

--- a/doc/TiDB/1.Mo_ta_nghiep_vu.xlsx
+++ b/doc/TiDB/1.Mo_ta_nghiep_vu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Thangtc\Project\napas\webreport\workspace\napas-report-tidb\doc\TiDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5512505-1762-44B9-96D0-697F6C96F137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E49B873-C022-48F2-9020-0D12ECC1D643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{64683C43-40C6-4716-B3B3-E4108C84BF3B}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="235">
   <si>
     <t>STT</t>
   </si>
@@ -678,15 +678,9 @@
     <t>Tên bang</t>
   </si>
   <si>
-    <t>ERR_EX</t>
-  </si>
-  <si>
     <t>Mô tả</t>
   </si>
   <si>
-    <t>ISOMESSAGE_TMP_68_TO</t>
-  </si>
-  <si>
     <t>done dev</t>
   </si>
   <si>
@@ -763,13 +757,22 @@
   </si>
   <si>
     <t>done dev amd unit test (can check lai FEE_KEY)</t>
+  </si>
+  <si>
+    <t>SHCLOG_SETT_IBFT_ADJUST</t>
+  </si>
+  <si>
+    <t>SYS_TBLPARAMETERS</t>
+  </si>
+  <si>
+    <t>NAPAS_SHC_TMP_DOMESTIC_IBFT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -791,6 +794,12 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF2A00FF"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -828,7 +837,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -876,6 +885,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1212,8 +1222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{427B2E8B-2EB7-4402-914C-268AFB94ABDC}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B21" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1242,13 +1252,13 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -1265,10 +1275,10 @@
         <v>5</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="15" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -1286,10 +1296,10 @@
         <v>9</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -1307,10 +1317,10 @@
         <v>12</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -1328,10 +1338,10 @@
         <v>15</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -1349,7 +1359,7 @@
         <v>18</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -1367,7 +1377,7 @@
         <v>20</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -1385,7 +1395,7 @@
         <v>23</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -1403,10 +1413,10 @@
         <v>26</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -1424,10 +1434,10 @@
         <v>30</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -1445,7 +1455,7 @@
         <v>33</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -1463,7 +1473,7 @@
         <v>36</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -1481,7 +1491,7 @@
         <v>39</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -1499,7 +1509,7 @@
         <v>42</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1517,7 +1527,7 @@
         <v>45</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1535,7 +1545,7 @@
         <v>47</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1553,7 +1563,7 @@
         <v>51</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="105" x14ac:dyDescent="0.25">
@@ -1571,7 +1581,7 @@
         <v>54</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1589,7 +1599,7 @@
         <v>57</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -1607,10 +1617,10 @@
         <v>60</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -1628,10 +1638,10 @@
         <v>62</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G21" s="15" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="22" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -1649,10 +1659,10 @@
         <v>66</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="23" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -1670,10 +1680,10 @@
         <v>68</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="24" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -1691,7 +1701,7 @@
         <v>72</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -1709,10 +1719,10 @@
         <v>80</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G25" s="15" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="26" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -1730,10 +1740,10 @@
         <v>81</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G26" s="15" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -1751,10 +1761,10 @@
         <v>83</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G27" s="15" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="28" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -1772,10 +1782,10 @@
         <v>85</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G28" s="15" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="29" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -1793,10 +1803,10 @@
         <v>86</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G29" s="15" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="30" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -1826,13 +1836,13 @@
         <v>94</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G31" s="15" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="32" spans="1:7" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -1850,10 +1860,10 @@
         <v>95</v>
       </c>
       <c r="E32" s="15" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G32" s="15" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="33" spans="1:7" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -1871,10 +1881,10 @@
         <v>98</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G33" s="15" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="34" spans="1:7" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -1892,10 +1902,10 @@
         <v>103</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G34" s="15" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="35" spans="1:7" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -1913,10 +1923,10 @@
         <v>104</v>
       </c>
       <c r="E35" s="15" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G35" s="15" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="36" spans="1:7" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -1934,7 +1944,7 @@
         <v>109</v>
       </c>
       <c r="E36" s="15" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="37" spans="1:7" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -1952,7 +1962,7 @@
         <v>110</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -1963,30 +1973,38 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{943660F7-3624-4670-8A51-33F3E04EAAD1}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>204</v>
       </c>
       <c r="B1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>207</v>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>234</v>
       </c>
     </row>
   </sheetData>

--- a/doc/TiDB/1.Mo_ta_nghiep_vu.xlsx
+++ b/doc/TiDB/1.Mo_ta_nghiep_vu.xlsx
@@ -8,17 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Thangtc\Project\napas\webreport\workspace\napas-report-tidb\doc\TiDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E49B873-C022-48F2-9020-0D12ECC1D643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1073D7FF-E206-4E82-B280-1B99E05D49ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{64683C43-40C6-4716-B3B3-E4108C84BF3B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Bang can go sung" sheetId="4" r:id="rId2"/>
-    <sheet name="IPSIBT20.ISOMESSAGE@NEW_IPSIBT" sheetId="2" r:id="rId3"/>
-    <sheet name="QRREALTIME_BACKEND.V_APG10_TRAN" sheetId="3" r:id="rId4"/>
+    <sheet name="Bang can dong bo" sheetId="5" r:id="rId3"/>
+    <sheet name="IPSIBT20.ISOMESSAGE@NEW_IPSIBT" sheetId="2" r:id="rId4"/>
+    <sheet name="QRREALTIME_BACKEND.V_APG10_TRAN" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="239">
   <si>
     <t>STT</t>
   </si>
@@ -767,12 +769,24 @@
   <si>
     <t>NAPAS_SHC_TMP_DOMESTIC_IBFT</t>
   </si>
+  <si>
+    <t>Ten bang</t>
+  </si>
+  <si>
+    <t>IPSIBT20.ISOMESSAGE@NEW_IPSIBT</t>
+  </si>
+  <si>
+    <t>QRREALTIME_BACKEND.V_APG10_TRANS@LINKACHTEST</t>
+  </si>
+  <si>
+    <t>IPSINQUIRY.TBL_PAYMENT@LINKACHTEST</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -800,6 +814,14 @@
       <color rgb="FF2A00FF"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -834,10 +856,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -886,8 +909,10 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1222,8 +1247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{427B2E8B-2EB7-4402-914C-268AFB94ABDC}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1976,7 +2001,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2013,6 +2038,45 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B91D88C-D4CC-4225-AD79-A057D1AC8417}">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
+        <v>238</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{895F7DEE-0CF3-40B5-A7E1-D79869B7F057}"/>
+    <hyperlink ref="A4" r:id="rId2" xr:uid="{97A5DDC6-468A-4B21-9F20-0E8143B1377C}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{183A53F7-8FC8-4BAE-833E-456D60388919}">
   <dimension ref="A1:P54"/>
   <sheetViews>
@@ -3767,7 +3831,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2970C51-2AD1-4C33-ABDC-6545D1E1053F}">
   <dimension ref="A1:D50"/>
   <sheetViews>

--- a/doc/TiDB/1.Mo_ta_nghiep_vu.xlsx
+++ b/doc/TiDB/1.Mo_ta_nghiep_vu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Thangtc\Project\napas\webreport\workspace\napas-report-tidb\doc\TiDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1073D7FF-E206-4E82-B280-1B99E05D49ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA9843A8-690C-4E7D-BCD1-E0DB10E0FDA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{64683C43-40C6-4716-B3B3-E4108C84BF3B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{64683C43-40C6-4716-B3B3-E4108C84BF3B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,6 @@
     <sheet name="QRREALTIME_BACKEND.V_APG10_TRAN" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="241">
   <si>
     <t>STT</t>
   </si>
@@ -780,6 +779,12 @@
   </si>
   <si>
     <t>IPSINQUIRY.TBL_PAYMENT@LINKACHTEST</t>
+  </si>
+  <si>
+    <t>GET_LIQUIDITY_BANK</t>
+  </si>
+  <si>
+    <t>Thay the cho function GET_LIQUIDITY_BANK</t>
   </si>
 </sst>
 </file>
@@ -1247,7 +1252,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{427B2E8B-2EB7-4402-914C-268AFB94ABDC}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
+    <sheetView topLeftCell="B19" workbookViewId="0">
       <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
@@ -1998,10 +2003,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{943660F7-3624-4670-8A51-33F3E04EAAD1}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2030,6 +2035,14 @@
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>234</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>239</v>
+      </c>
+      <c r="B7" t="s">
+        <v>240</v>
       </c>
     </row>
   </sheetData>

--- a/doc/TiDB/1.Mo_ta_nghiep_vu.xlsx
+++ b/doc/TiDB/1.Mo_ta_nghiep_vu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Thangtc\Project\napas\webreport\workspace\napas-report-tidb\doc\TiDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA9843A8-690C-4E7D-BCD1-E0DB10E0FDA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B65A1C3-BA92-4466-B01E-9F56F6B2FD65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{64683C43-40C6-4716-B3B3-E4108C84BF3B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{64683C43-40C6-4716-B3B3-E4108C84BF3B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="IPSIBT20.ISOMESSAGE@NEW_IPSIBT" sheetId="2" r:id="rId4"/>
     <sheet name="QRREALTIME_BACKEND.V_APG10_TRAN" sheetId="3" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1252,8 +1252,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{427B2E8B-2EB7-4402-914C-268AFB94ABDC}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView topLeftCell="B19" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2005,7 +2005,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{943660F7-3624-4670-8A51-33F3E04EAAD1}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>

--- a/doc/TiDB/1.Mo_ta_nghiep_vu.xlsx
+++ b/doc/TiDB/1.Mo_ta_nghiep_vu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Thangtc\Project\napas\webreport\workspace\napas-report-tidb\doc\TiDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B65A1C3-BA92-4466-B01E-9F56F6B2FD65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60236E04-91E3-4D1F-B631-98E35923690A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{64683C43-40C6-4716-B3B3-E4108C84BF3B}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <sheet name="IPSIBT20.ISOMESSAGE@NEW_IPSIBT" sheetId="2" r:id="rId4"/>
     <sheet name="QRREALTIME_BACKEND.V_APG10_TRAN" sheetId="3" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1253,7 +1253,7 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/doc/TiDB/1.Mo_ta_nghiep_vu.xlsx
+++ b/doc/TiDB/1.Mo_ta_nghiep_vu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Thangtc\Project\napas\webreport\workspace\napas-report-tidb\doc\TiDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60236E04-91E3-4D1F-B631-98E35923690A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7129ACE-67C5-439E-8E4A-EF2C19365C88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{64683C43-40C6-4716-B3B3-E4108C84BF3B}"/>
   </bookViews>
@@ -1252,8 +1252,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{427B2E8B-2EB7-4402-914C-268AFB94ABDC}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/doc/TiDB/1.Mo_ta_nghiep_vu.xlsx
+++ b/doc/TiDB/1.Mo_ta_nghiep_vu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Thangtc\Project\napas\webreport\workspace\napas-report-tidb\doc\TiDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7129ACE-67C5-439E-8E4A-EF2C19365C88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4990F5B-2583-4176-9CFB-8EB94819FBE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{64683C43-40C6-4716-B3B3-E4108C84BF3B}"/>
   </bookViews>
@@ -1252,8 +1252,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{427B2E8B-2EB7-4402-914C-268AFB94ABDC}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/doc/TiDB/1.Mo_ta_nghiep_vu.xlsx
+++ b/doc/TiDB/1.Mo_ta_nghiep_vu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Thangtc\Project\napas\webreport\workspace\napas-report-tidb\doc\TiDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4990F5B-2583-4176-9CFB-8EB94819FBE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46A86200-CE6C-498B-AD27-A01598C1C7FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{64683C43-40C6-4716-B3B3-E4108C84BF3B}"/>
   </bookViews>
@@ -1252,8 +1252,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{427B2E8B-2EB7-4402-914C-268AFB94ABDC}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/doc/TiDB/1.Mo_ta_nghiep_vu.xlsx
+++ b/doc/TiDB/1.Mo_ta_nghiep_vu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Thangtc\Project\napas\webreport\workspace\napas-report-tidb\doc\TiDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46A86200-CE6C-498B-AD27-A01598C1C7FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C29F5E4B-ADA4-408A-B725-4D4E06FE6E92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{64683C43-40C6-4716-B3B3-E4108C84BF3B}"/>
   </bookViews>
@@ -1252,8 +1252,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{427B2E8B-2EB7-4402-914C-268AFB94ABDC}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="D10" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
